--- a/biology/Histoire de la zoologie et de la botanique/Onésime_Clerc/Onésime_Clerc.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Onésime_Clerc/Onésime_Clerc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>On%C3%A9sime_Clerc</t>
+          <t>Onésime_Clerc</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Onésime Clerc (en russe Онисим Егорович Клер ; né le 25 février 1845 à Corcelles, canton de Neuchâtel, et mort le 18 janvier 1920 à Iekaterinbourg en Russie) est un naturaliste neuchâtelois spécialiste de l'Oural. Il est le fondateur du Musée d'histoire naturelle d'Iekaterinbourg (ru)[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Onésime Clerc (en russe Онисим Егорович Клер ; né le 25 février 1845 à Corcelles, canton de Neuchâtel, et mort le 18 janvier 1920 à Iekaterinbourg en Russie) est un naturaliste neuchâtelois spécialiste de l'Oural. Il est le fondateur du Musée d'histoire naturelle d'Iekaterinbourg (ru).
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>On%C3%A9sime_Clerc</t>
+          <t>Onésime_Clerc</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Enfance et formation en Suisse</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Onésime Clerc passe son enfance avec sa famille à Corcelles, dans l'actuelle maison de la Grand-Rue 19[2],[3]. Ses parents, Georges et Marianne, ont quatre fils et une fille.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Onésime Clerc passe son enfance avec sa famille à Corcelles, dans l'actuelle maison de la Grand-Rue 19,. Ses parents, Georges et Marianne, ont quatre fils et une fille.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>On%C3%A9sime_Clerc</t>
+          <t>Onésime_Clerc</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Enseignant en Russie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il part pour la Russie en 1863 et obtint en 1864 un diplôme d'enseignement du français dans les lycées russes.
 </t>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>On%C3%A9sime_Clerc</t>
+          <t>Onésime_Clerc</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,9 +589,11 @@
           <t>Vie privée</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Onésime Clerc est le père de Modeste Clerc (1879-1966), professeur de géologie, arrêté à Genève  en 1924 sous l’inculpation d’espionnage économique[4],[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Onésime Clerc est le père de Modeste Clerc (1879-1966), professeur de géologie, arrêté à Genève  en 1924 sous l’inculpation d’espionnage économique,.
 </t>
         </is>
       </c>
